--- a/biology/Zoologie/Afrixalus_fulvovittatus/Afrixalus_fulvovittatus.xlsx
+++ b/biology/Zoologie/Afrixalus_fulvovittatus/Afrixalus_fulvovittatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrixalus fulvovittatus est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrixalus fulvovittatus est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des régions montagneuses de la zone forestière de l'Afrique de l'Ouest. Elle se rencontre en Côte d'Ivoire, en Guinée, au Liberia, au Sierra Leone et au Ghana[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des régions montagneuses de la zone forestière de l'Afrique de l'Ouest. Elle se rencontre en Côte d'Ivoire, en Guinée, au Liberia, au Sierra Leone et au Ghana.
 ### Fiche Détaillée de Afrixalus fulvovittatus
 #### Classification
 - **Règne**: Animalia
@@ -583,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1861 "1860" : Description of new species of the Reptilian genera Hyperolius, Liuperus and Tropidodipsas. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 517-518 (texte intégral).</t>
         </is>
